--- a/output_data7.xlsx
+++ b/output_data7.xlsx
@@ -66,8 +66,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ADD8E6"/>
-        <bgColor rgb="00ADD8E6"/>
+        <fgColor rgb="00BDCFEF"/>
+        <bgColor rgb="00BDCFEF"/>
       </patternFill>
     </fill>
     <fill>
